--- a/OnlineTurbineMonitor/useful_data.xlsx
+++ b/OnlineTurbineMonitor/useful_data.xlsx
@@ -3,15 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5502AD34-85B5-493A-ABBA-BCB7A8024E0E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4C355A2F-E9B7-447D-98AE-C27B8AA2657B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plant" sheetId="1" r:id="rId1"/>
-    <sheet name="rh" sheetId="2" r:id="rId2"/>
-    <sheet name="hp" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="rh_draw" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="311">
   <si>
     <t>序号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -869,9 +867,6 @@
     <t>CSDC.DCS4AI.4JZA0497</t>
   </si>
   <si>
-    <t>除氧器水温度</t>
-  </si>
-  <si>
     <t>CSDC.DCS1AI.1JZA2488</t>
   </si>
   <si>
@@ -997,108 +992,6 @@
   <si>
     <t>CSDC.ANA4AO.IP_IFF_IS</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A主蒸汽压力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mpa</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A主汽门前温度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A侧自动主汽门后蒸汽压力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSDC.DCS1AI.1JZA2195</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSDC.DCS2AI.2JZA2226</t>
-  </si>
-  <si>
-    <t>CSDC.DCS3AI.3JZA1580</t>
-  </si>
-  <si>
-    <t>CSDC.DCS4AI.4JZA0672</t>
-  </si>
-  <si>
-    <t>A自动主汽门后温度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSDC.DCS1AI.1JZA2339</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSDC.DCS2AI.2JZA2408</t>
-  </si>
-  <si>
-    <t>CSDC.DCS3AI.3JZA0830</t>
-  </si>
-  <si>
-    <t>CSDC.DCS4AI.4JZA0549</t>
-  </si>
-  <si>
-    <t>一级抽汽管上壁温</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级抽汽压力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSDC.DCS1AI.1JZA2209</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSDC.DCS2AI.2JZA2240</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSDC.DCS3AI.3JZA1587</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSDC.DCS4AI.4JZA0698</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高压缸A侧排汽压力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高压缸A排汽温度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSDC.ANAAO.HP_IFF_IS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSDC.DCS2AI.2JZA2126</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSDC.DCS2AI.2JZA1934</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSDC.DCS2AI.2JZA2286</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSDC.DCS2AI.2JZA2230</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSDC.DCS2AI.2JZA2463</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>过热器减温水总管流量</t>
@@ -1129,10 +1022,6 @@
     <t>CSDC.DCS3AI.3JZA1556</t>
   </si>
   <si>
-    <t>CSDC.DCS2AI.2JZA1200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>过热器减温水总管压力</t>
   </si>
   <si>
@@ -1158,10 +1047,6 @@
   </si>
   <si>
     <t>CSDC.DCS3AI.3JZA1551</t>
-  </si>
-  <si>
-    <t>CSDC.DCS2AI.2JZA2557</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CSDC.DCS4AI.4JZA0531</t>
@@ -1195,13 +1080,44 @@
   <si>
     <t>热耗率</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSDC.DCS2AI.2JZA2126</t>
+  </si>
+  <si>
+    <t>CSDC.DCS2AI.2JZA1934</t>
+  </si>
+  <si>
+    <t>CSDC.DCS2AI.2JZA2286</t>
+  </si>
+  <si>
+    <t>除氧器水温度</t>
+  </si>
+  <si>
+    <t>CSDC.DCS2AI.2JZA2557</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1271,14 +1187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1287,12 +1195,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1306,11 +1220,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1351,31 +1265,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1395,6 +1285,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1677,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I25"/>
+  <dimension ref="A2:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1688,11 +1596,13 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="4"/>
+    <col min="11" max="12" width="8" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1703,22 +1613,34 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1728,23 +1650,35 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1754,23 +1688,35 @@
       <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1780,26 +1726,35 @@
       <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="5">
-        <v>8142.2430000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1809,23 +1764,35 @@
       <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1835,23 +1802,35 @@
       <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1861,23 +1840,35 @@
       <c r="C8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1887,23 +1878,35 @@
       <c r="C9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1913,23 +1916,35 @@
       <c r="C10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1939,23 +1954,35 @@
       <c r="C11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1965,27 +1992,39 @@
       <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -2014,6 +2053,59 @@
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
+    </row>
+    <row r="42" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+    </row>
+    <row r="43" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+    </row>
+    <row r="44" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I47" s="23"/>
+    </row>
+    <row r="48" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="23"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="23"/>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="23"/>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="23"/>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="23"/>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="23"/>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2023,585 +2115,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A398F8C-5D10-47A9-89E5-F05B9A26E902}">
-  <dimension ref="A2:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F996C1C-E1A2-425C-8F4E-CE27573E7E5D}">
+  <dimension ref="A2:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" style="12" customWidth="1"/>
     <col min="3" max="3" width="16.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="20.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="20.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="4"/>
+    <col min="11" max="12" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>1</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>2</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>4</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>5</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>6</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>7</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>8</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>9</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>10</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>11</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
-        <v>12</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>13</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>14</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>16</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
-        <v>18</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
-        <v>19</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
-        <v>20</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
-        <v>21</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="13"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E845AE-3791-4FA9-9AD3-C9A76A19F6C4}">
-  <dimension ref="A2:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="19.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2619,8 +2156,20 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2630,20 +2179,32 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="4">
+        <v>750</v>
+      </c>
+      <c r="J3" s="4">
+        <v>130</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2653,913 +2214,1641 @@
       <c r="C4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="4">
+        <v>180</v>
+      </c>
+      <c r="J4" s="4">
+        <v>80</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="4">
+        <v>180</v>
+      </c>
+      <c r="J5" s="4">
+        <v>90</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>277</v>
+        <v>87</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="4">
+        <v>180</v>
+      </c>
+      <c r="J6" s="4">
+        <v>100</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>278</v>
+      <c r="B7" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="4">
+        <v>360</v>
+      </c>
+      <c r="J7" s="4">
+        <v>60</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>283</v>
+      <c r="B8" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="4">
+        <v>360</v>
+      </c>
+      <c r="J8" s="4">
+        <v>70</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="4">
+        <v>90</v>
+      </c>
+      <c r="J9" s="4">
+        <v>270</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="4">
+        <v>90</v>
+      </c>
+      <c r="J10" s="4">
+        <v>280</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="4">
+        <v>90</v>
+      </c>
+      <c r="J11" s="4">
+        <v>290</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>289</v>
+        <v>115</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="4">
+        <v>300</v>
+      </c>
+      <c r="J12" s="4">
+        <v>155</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>294</v>
+        <v>120</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="4">
+        <v>285</v>
+      </c>
+      <c r="J13" s="4">
+        <v>250</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>295</v>
+        <v>125</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="4">
+        <v>285</v>
+      </c>
+      <c r="J14" s="4">
+        <v>260</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F992DB2-AC6D-41C5-AE84-A21E23F67ED9}">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="20.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:7" s="10" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B15" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="D15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="4">
+        <v>230</v>
+      </c>
+      <c r="J15" s="4">
         <v>200</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>205</v>
+      <c r="B16" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>206</v>
+      <c r="D16" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="I16" s="4">
+        <v>230</v>
+      </c>
+      <c r="J16" s="4">
+        <v>210</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="I17" s="4">
+        <v>330</v>
+      </c>
+      <c r="J17" s="4">
+        <v>270</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="I18" s="4">
+        <v>330</v>
+      </c>
+      <c r="J18" s="4">
+        <v>280</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I19" s="4">
+        <v>420</v>
+      </c>
+      <c r="J19" s="4">
         <v>220</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="I20" s="4">
+        <v>420</v>
+      </c>
+      <c r="J20" s="4">
+        <v>230</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="I21" s="4">
+        <v>450</v>
+      </c>
+      <c r="J21" s="4">
+        <v>280</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="I22" s="4">
+        <v>450</v>
+      </c>
+      <c r="J22" s="4">
+        <v>290</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="I23" s="4">
+        <v>525</v>
+      </c>
+      <c r="J23" s="4">
+        <v>280</v>
+      </c>
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="I24" s="4">
+        <v>525</v>
+      </c>
+      <c r="J24" s="4">
+        <v>290</v>
+      </c>
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="I25" s="4">
+        <v>590</v>
+      </c>
+      <c r="J25" s="4">
+        <v>320</v>
+      </c>
+      <c r="K25" s="5">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I26" s="4">
+        <v>590</v>
+      </c>
+      <c r="J26" s="4">
+        <v>330</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>23</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I27" s="4">
+        <v>665</v>
+      </c>
+      <c r="J27" s="4">
+        <v>320</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>24</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I28" s="4">
+        <v>665</v>
+      </c>
+      <c r="J28" s="4">
+        <v>330</v>
+      </c>
+      <c r="K28" s="5">
+        <v>1</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>25</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I29" s="4">
+        <v>530</v>
+      </c>
+      <c r="J29" s="4">
+        <v>230</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>26</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" s="4">
+        <v>530</v>
+      </c>
+      <c r="J30" s="4">
+        <v>240</v>
+      </c>
+      <c r="K30" s="5">
+        <v>1</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>27</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" s="4">
+        <v>770</v>
+      </c>
+      <c r="J31" s="4">
+        <v>285</v>
+      </c>
+      <c r="K31" s="5">
+        <v>1</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>28</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I32" s="4">
+        <v>180</v>
+      </c>
+      <c r="J32" s="4">
+        <v>450</v>
+      </c>
+      <c r="K32" s="5">
+        <v>1</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>29</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I33" s="4">
+        <v>250</v>
+      </c>
+      <c r="J33" s="4">
+        <v>450</v>
+      </c>
+      <c r="K33" s="5">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>30</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I34" s="4">
+        <v>320</v>
+      </c>
+      <c r="J34" s="4">
+        <v>450</v>
+      </c>
+      <c r="K34" s="5">
+        <v>1</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>31</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I35" s="4">
+        <v>365</v>
+      </c>
+      <c r="J35" s="4">
+        <v>420</v>
+      </c>
+      <c r="K35" s="5">
+        <v>1</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>32</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I36" s="4">
+        <v>390</v>
+      </c>
+      <c r="J36" s="4">
+        <v>335</v>
+      </c>
+      <c r="K36" s="5">
+        <v>1</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>33</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I37" s="4">
+        <v>425</v>
+      </c>
+      <c r="J37" s="4">
+        <v>420</v>
+      </c>
+      <c r="K37" s="5">
+        <v>1</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>34</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I38" s="4">
+        <v>500</v>
+      </c>
+      <c r="J38" s="4">
+        <v>450</v>
+      </c>
+      <c r="K38" s="5">
+        <v>1</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>35</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I39" s="4">
+        <v>570</v>
+      </c>
+      <c r="J39" s="4">
+        <v>450</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>36</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I40" s="4">
+        <v>640</v>
+      </c>
+      <c r="J40" s="4">
+        <v>450</v>
+      </c>
+      <c r="K40" s="5">
+        <v>1</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>37</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="I41" s="4">
+        <v>730</v>
+      </c>
+      <c r="J41" s="4">
+        <v>370</v>
+      </c>
+      <c r="K41" s="5">
+        <v>1</v>
+      </c>
+      <c r="L41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
+        <v>38</v>
+      </c>
+      <c r="B42" s="25" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>25</v>
-      </c>
-      <c r="B27" s="12" t="s">
+      <c r="C42" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D42" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E42" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F42" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G42" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="I42" s="24">
+        <v>230</v>
+      </c>
+      <c r="J42" s="24">
+        <v>150</v>
+      </c>
+      <c r="K42" s="26">
+        <v>0</v>
+      </c>
+      <c r="L42" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
+        <v>39</v>
+      </c>
+      <c r="B43" s="25" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" s="12" t="s">
+      <c r="C43" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D43" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="E43" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F43" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G43" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="I43" s="24">
+        <v>430</v>
+      </c>
+      <c r="J43" s="24">
+        <v>150</v>
+      </c>
+      <c r="K43" s="26">
+        <v>0</v>
+      </c>
+      <c r="L43" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>40</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>274</v>
       </c>
+      <c r="C44" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="I44" s="23">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>41</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="I45" s="23">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0</v>
+      </c>
+      <c r="L45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>42</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="I46" s="23">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0</v>
+      </c>
+      <c r="L46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>43</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="I47" s="23">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0</v>
+      </c>
+      <c r="L47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>44</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="I48" s="23">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0</v>
+      </c>
+      <c r="L48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>45</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="23">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0</v>
+      </c>
+      <c r="L49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F50" s="13"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F51" s="13"/>
+      <c r="I51" s="23"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F52" s="13"/>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F53" s="13"/>
+      <c r="I53" s="23"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F54" s="13"/>
+      <c r="I54" s="23"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F55" s="13"/>
+      <c r="I55" s="23"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F56" s="13"/>
+      <c r="I56" s="23"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F57" s="13"/>
+      <c r="I57" s="23"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F58" s="13"/>
+      <c r="I58" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/OnlineTurbineMonitor/useful_data.xlsx
+++ b/OnlineTurbineMonitor/useful_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4C355A2F-E9B7-447D-98AE-C27B8AA2657B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E66F1C4D-DC2B-4B48-B29A-9B182A9D12B5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2118,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F996C1C-E1A2-425C-8F4E-CE27573E7E5D}">
   <dimension ref="A2:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44:L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2129,6 +2129,7 @@
     <col min="3" max="3" width="16.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="20.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="4"/>
     <col min="11" max="12" width="8" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="5"/>
@@ -2516,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3181,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -3531,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="24" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -3636,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -3671,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3706,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3741,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3776,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
